--- a/data/new data/NK elite new checklist.xlsx
+++ b/data/new data/NK elite new checklist.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\new data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809D23FB-579E-4659-9864-6EA4ADF98418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhQFFooEHcaY2qBLkRXhLQzyFBA7g=="/>
@@ -3999,22 +4008,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF42465F"/>
       <name val="Dotum"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -4024,7 +4033,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4046,7 +4055,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right style="thin">
@@ -4058,14 +4073,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -4076,38 +4084,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -4297,25 +4318,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col min="1" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4344,7 +4365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -4367,7 +4388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -4394,7 +4415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -4417,7 +4438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -4444,7 +4465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -4467,7 +4488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -4488,7 +4509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -4511,7 +4532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -4538,7 +4559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -4565,7 +4586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -4592,7 +4613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4615,7 +4636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -4638,7 +4659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -4663,7 +4684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -4690,7 +4711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -4715,7 +4736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -4736,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -4757,7 +4778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -4780,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -4803,7 +4824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
@@ -4826,7 +4847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
@@ -4849,7 +4870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -4872,7 +4893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -4893,7 +4914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>80</v>
       </c>
@@ -4916,7 +4937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -4939,7 +4960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -4962,7 +4983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -4989,7 +5010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -5012,7 +5033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -5035,7 +5056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -5058,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -5079,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -5100,7 +5121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -5123,7 +5144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -5146,7 +5167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -5171,7 +5192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -5194,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -5217,7 +5238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
@@ -5240,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -5261,7 +5282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -5284,7 +5305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -5305,7 +5326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>120</v>
       </c>
@@ -5332,7 +5353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>124</v>
       </c>
@@ -5355,7 +5376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>126</v>
       </c>
@@ -5382,7 +5403,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>131</v>
       </c>
@@ -5403,7 +5424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
@@ -5426,7 +5447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>134</v>
       </c>
@@ -5449,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
@@ -5474,7 +5495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -5495,7 +5516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
@@ -5518,7 +5539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
@@ -5543,7 +5564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>150</v>
       </c>
@@ -5564,7 +5585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>152</v>
       </c>
@@ -5585,7 +5606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>153</v>
       </c>
@@ -5606,7 +5627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>155</v>
       </c>
@@ -5629,7 +5650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>157</v>
       </c>
@@ -5652,7 +5673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
@@ -5679,7 +5700,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>163</v>
       </c>
@@ -5700,7 +5721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>165</v>
       </c>
@@ -5723,7 +5744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>167</v>
       </c>
@@ -5748,7 +5769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>171</v>
       </c>
@@ -5777,7 +5798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>175</v>
       </c>
@@ -5800,7 +5821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>176</v>
       </c>
@@ -5823,7 +5844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>179</v>
       </c>
@@ -5844,7 +5865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>180</v>
       </c>
@@ -5867,7 +5888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>181</v>
       </c>
@@ -5890,7 +5911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>182</v>
       </c>
@@ -5917,7 +5938,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>186</v>
       </c>
@@ -5942,7 +5963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>189</v>
       </c>
@@ -5965,7 +5986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>192</v>
       </c>
@@ -5988,7 +6009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>193</v>
       </c>
@@ -6013,7 +6034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>196</v>
       </c>
@@ -6038,7 +6059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>198</v>
       </c>
@@ -6063,7 +6084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>203</v>
       </c>
@@ -6084,7 +6105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>204</v>
       </c>
@@ -6107,7 +6128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>206</v>
       </c>
@@ -6130,7 +6151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>208</v>
       </c>
@@ -6151,7 +6172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>209</v>
       </c>
@@ -6172,7 +6193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -6199,7 +6220,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>215</v>
       </c>
@@ -6222,7 +6243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>217</v>
       </c>
@@ -6247,7 +6268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>219</v>
       </c>
@@ -6274,7 +6295,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>223</v>
       </c>
@@ -6295,7 +6316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>224</v>
       </c>
@@ -6318,7 +6339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>226</v>
       </c>
@@ -6341,7 +6362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>228</v>
       </c>
@@ -6366,7 +6387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>230</v>
       </c>
@@ -6391,7 +6412,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>234</v>
       </c>
@@ -6414,7 +6435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>237</v>
       </c>
@@ -6439,7 +6460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>241</v>
       </c>
@@ -6462,7 +6483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>243</v>
       </c>
@@ -6489,7 +6510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>246</v>
       </c>
@@ -6512,7 +6533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>247</v>
       </c>
@@ -6535,7 +6556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>248</v>
       </c>
@@ -6560,7 +6581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>251</v>
       </c>
@@ -6583,7 +6604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>252</v>
       </c>
@@ -6606,7 +6627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>253</v>
       </c>
@@ -6627,7 +6648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>254</v>
       </c>
@@ -6650,7 +6671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>257</v>
       </c>
@@ -6671,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>259</v>
       </c>
@@ -6696,7 +6717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>262</v>
       </c>
@@ -6719,7 +6740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>264</v>
       </c>
@@ -6742,7 +6763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>266</v>
       </c>
@@ -6769,7 +6790,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>270</v>
       </c>
@@ -6790,7 +6811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>271</v>
       </c>
@@ -6817,7 +6838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>273</v>
       </c>
@@ -6840,7 +6861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>275</v>
       </c>
@@ -6861,7 +6882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>276</v>
       </c>
@@ -6886,7 +6907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>278</v>
       </c>
@@ -6909,7 +6930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>280</v>
       </c>
@@ -6932,7 +6953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
@@ -6957,7 +6978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>286</v>
       </c>
@@ -6980,7 +7001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>288</v>
       </c>
@@ -7005,7 +7026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>290</v>
       </c>
@@ -7028,7 +7049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>292</v>
       </c>
@@ -7053,7 +7074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>296</v>
       </c>
@@ -7076,7 +7097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>298</v>
       </c>
@@ -7103,7 +7124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>301</v>
       </c>
@@ -7128,7 +7149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>303</v>
       </c>
@@ -7151,7 +7172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>305</v>
       </c>
@@ -7172,7 +7193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>307</v>
       </c>
@@ -7193,7 +7214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -7218,7 +7239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>310</v>
       </c>
@@ -7239,7 +7260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>311</v>
       </c>
@@ -7260,7 +7281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>312</v>
       </c>
@@ -7281,7 +7302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>313</v>
       </c>
@@ -7304,7 +7325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>314</v>
       </c>
@@ -7331,7 +7352,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>317</v>
       </c>
@@ -7360,7 +7381,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>322</v>
       </c>
@@ -7381,7 +7402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>323</v>
       </c>
@@ -7402,7 +7423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>325</v>
       </c>
@@ -7423,7 +7444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>326</v>
       </c>
@@ -7444,7 +7465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>327</v>
       </c>
@@ -7471,7 +7492,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>331</v>
       </c>
@@ -7494,7 +7515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>333</v>
       </c>
@@ -7517,7 +7538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>335</v>
       </c>
@@ -7542,7 +7563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>336</v>
       </c>
@@ -7569,7 +7590,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>341</v>
       </c>
@@ -7592,7 +7613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>343</v>
       </c>
@@ -7615,7 +7636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>345</v>
       </c>
@@ -7642,7 +7663,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>349</v>
       </c>
@@ -7663,7 +7684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>350</v>
       </c>
@@ -7690,7 +7711,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>354</v>
       </c>
@@ -7713,7 +7734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>356</v>
       </c>
@@ -7740,7 +7761,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>360</v>
       </c>
@@ -7763,7 +7784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>362</v>
       </c>
@@ -7784,7 +7805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>363</v>
       </c>
@@ -7809,7 +7830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>366</v>
       </c>
@@ -7832,7 +7853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>367</v>
       </c>
@@ -7857,7 +7878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>371</v>
       </c>
@@ -7880,7 +7901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>373</v>
       </c>
@@ -7901,7 +7922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>375</v>
       </c>
@@ -7924,7 +7945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>377</v>
       </c>
@@ -7949,7 +7970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>380</v>
       </c>
@@ -7972,7 +7993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>382</v>
       </c>
@@ -7995,7 +8016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>384</v>
       </c>
@@ -8018,7 +8039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>387</v>
       </c>
@@ -8045,7 +8066,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>392</v>
       </c>
@@ -8068,7 +8089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>394</v>
       </c>
@@ -8091,7 +8112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>396</v>
       </c>
@@ -8114,7 +8135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>398</v>
       </c>
@@ -8141,7 +8162,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>402</v>
       </c>
@@ -8164,7 +8185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>404</v>
       </c>
@@ -8185,7 +8206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>405</v>
       </c>
@@ -8210,7 +8231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>408</v>
       </c>
@@ -8231,7 +8252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>409</v>
       </c>
@@ -8254,7 +8275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>411</v>
       </c>
@@ -8277,7 +8298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>413</v>
       </c>
@@ -8302,7 +8323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>417</v>
       </c>
@@ -8323,7 +8344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>418</v>
       </c>
@@ -8348,7 +8369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>421</v>
       </c>
@@ -8375,7 +8396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>425</v>
       </c>
@@ -8396,7 +8417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>427</v>
       </c>
@@ -8417,7 +8438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>428</v>
       </c>
@@ -8440,7 +8461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>429</v>
       </c>
@@ -8463,7 +8484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>431</v>
       </c>
@@ -8484,7 +8505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>432</v>
       </c>
@@ -8507,7 +8528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>434</v>
       </c>
@@ -8530,7 +8551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>436</v>
       </c>
@@ -8557,7 +8578,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>439</v>
       </c>
@@ -8580,7 +8601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>441</v>
       </c>
@@ -8603,7 +8624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>443</v>
       </c>
@@ -8624,7 +8645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>444</v>
       </c>
@@ -8647,7 +8668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>446</v>
       </c>
@@ -8670,7 +8691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>448</v>
       </c>
@@ -8693,7 +8714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>450</v>
       </c>
@@ -8714,7 +8735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>451</v>
       </c>
@@ -8735,7 +8756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>453</v>
       </c>
@@ -8758,7 +8779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>455</v>
       </c>
@@ -8783,7 +8804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>458</v>
       </c>
@@ -8804,7 +8825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>460</v>
       </c>
@@ -8827,7 +8848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>462</v>
       </c>
@@ -8848,7 +8869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>463</v>
       </c>
@@ -8873,7 +8894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>465</v>
       </c>
@@ -8894,7 +8915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>467</v>
       </c>
@@ -8917,7 +8938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>469</v>
       </c>
@@ -8942,7 +8963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>471</v>
       </c>
@@ -8965,7 +8986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>472</v>
       </c>
@@ -8986,7 +9007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>473</v>
       </c>
@@ -9007,7 +9028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>474</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>476</v>
       </c>
@@ -9053,7 +9074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>478</v>
       </c>
@@ -9078,7 +9099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>481</v>
       </c>
@@ -9101,7 +9122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>483</v>
       </c>
@@ -9126,7 +9147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>486</v>
       </c>
@@ -9147,7 +9168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>487</v>
       </c>
@@ -9170,7 +9191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>488</v>
       </c>
@@ -9197,7 +9218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>491</v>
       </c>
@@ -9220,7 +9241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>492</v>
       </c>
@@ -9243,7 +9264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>493</v>
       </c>
@@ -9270,7 +9291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>495</v>
       </c>
@@ -9293,7 +9314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>497</v>
       </c>
@@ -9318,7 +9339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>499</v>
       </c>
@@ -9347,7 +9368,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>504</v>
       </c>
@@ -9372,7 +9393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>507</v>
       </c>
@@ -9397,7 +9418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>509</v>
       </c>
@@ -9420,7 +9441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>511</v>
       </c>
@@ -9441,7 +9462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>512</v>
       </c>
@@ -9466,7 +9487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>515</v>
       </c>
@@ -9491,7 +9512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>517</v>
       </c>
@@ -9514,7 +9535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>519</v>
       </c>
@@ -9541,7 +9562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>522</v>
       </c>
@@ -9562,7 +9583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>523</v>
       </c>
@@ -9589,7 +9610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>527</v>
       </c>
@@ -9610,7 +9631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>528</v>
       </c>
@@ -9635,7 +9656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>531</v>
       </c>
@@ -9658,7 +9679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>533</v>
       </c>
@@ -9683,7 +9704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>536</v>
       </c>
@@ -9708,7 +9729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>538</v>
       </c>
@@ -9735,7 +9756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>542</v>
       </c>
@@ -9758,7 +9779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>543</v>
       </c>
@@ -9781,7 +9802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>545</v>
       </c>
@@ -9808,7 +9829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>549</v>
       </c>
@@ -9837,7 +9858,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>553</v>
       </c>
@@ -9864,7 +9885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>557</v>
       </c>
@@ -9889,7 +9910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>561</v>
       </c>
@@ -9916,7 +9937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>563</v>
       </c>
@@ -9943,7 +9964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>567</v>
       </c>
@@ -9968,7 +9989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>570</v>
       </c>
@@ -9993,7 +10014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>573</v>
       </c>
@@ -10018,7 +10039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>576</v>
       </c>
@@ -10043,7 +10064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>579</v>
       </c>
@@ -10066,7 +10087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>581</v>
       </c>
@@ -10091,7 +10112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>583</v>
       </c>
@@ -10114,7 +10135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>585</v>
       </c>
@@ -10137,7 +10158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>588</v>
       </c>
@@ -10162,7 +10183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>590</v>
       </c>
@@ -10185,7 +10206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>592</v>
       </c>
@@ -10208,7 +10229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>594</v>
       </c>
@@ -10233,7 +10254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>597</v>
       </c>
@@ -10260,7 +10281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>599</v>
       </c>
@@ -10287,7 +10308,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>603</v>
       </c>
@@ -10312,7 +10333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>606</v>
       </c>
@@ -10337,7 +10358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>607</v>
       </c>
@@ -10362,7 +10383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>610</v>
       </c>
@@ -10385,7 +10406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>613</v>
       </c>
@@ -10406,7 +10427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>614</v>
       </c>
@@ -10431,7 +10452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>618</v>
       </c>
@@ -10460,7 +10481,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>623</v>
       </c>
@@ -10483,7 +10504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>626</v>
       </c>
@@ -10508,7 +10529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>628</v>
       </c>
@@ -10535,7 +10556,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>633</v>
       </c>
@@ -10562,7 +10583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>637</v>
       </c>
@@ -10589,7 +10610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>640</v>
       </c>
@@ -10612,7 +10633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>642</v>
       </c>
@@ -10641,7 +10662,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>648</v>
       </c>
@@ -10668,7 +10689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>652</v>
       </c>
@@ -10691,7 +10712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>654</v>
       </c>
@@ -10714,7 +10735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>655</v>
       </c>
@@ -10743,7 +10764,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>660</v>
       </c>
@@ -10766,7 +10787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>662</v>
       </c>
@@ -10793,7 +10814,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>666</v>
       </c>
@@ -10818,7 +10839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>668</v>
       </c>
@@ -10845,7 +10866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>670</v>
       </c>
@@ -10870,7 +10891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>673</v>
       </c>
@@ -10899,7 +10920,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>678</v>
       </c>
@@ -10920,7 +10941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>679</v>
       </c>
@@ -10949,7 +10970,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>684</v>
       </c>
@@ -10976,7 +10997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>688</v>
       </c>
@@ -11001,7 +11022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>690</v>
       </c>
@@ -11024,7 +11045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>692</v>
       </c>
@@ -11049,7 +11070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>696</v>
       </c>
@@ -11072,7 +11093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>698</v>
       </c>
@@ -11093,7 +11114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>699</v>
       </c>
@@ -11114,7 +11135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>701</v>
       </c>
@@ -11137,7 +11158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>702</v>
       </c>
@@ -11166,7 +11187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>706</v>
       </c>
@@ -11189,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>708</v>
       </c>
@@ -11212,7 +11233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>710</v>
       </c>
@@ -11237,7 +11258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>714</v>
       </c>
@@ -11260,7 +11281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>717</v>
       </c>
@@ -11287,7 +11308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>719</v>
       </c>
@@ -11310,7 +11331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>721</v>
       </c>
@@ -11333,7 +11354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>723</v>
       </c>
@@ -11356,7 +11377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>725</v>
       </c>
@@ -11379,7 +11400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>726</v>
       </c>
@@ -11402,7 +11423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>728</v>
       </c>
@@ -11425,7 +11446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>729</v>
       </c>
@@ -11448,7 +11469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>731</v>
       </c>
@@ -11475,7 +11496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>734</v>
       </c>
@@ -11498,7 +11519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>737</v>
       </c>
@@ -11521,7 +11542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>739</v>
       </c>
@@ -11550,7 +11571,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>743</v>
       </c>
@@ -11577,7 +11598,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>748</v>
       </c>
@@ -11600,7 +11621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>750</v>
       </c>
@@ -11623,7 +11644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>753</v>
       </c>
@@ -11646,7 +11667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>755</v>
       </c>
@@ -11669,7 +11690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>757</v>
       </c>
@@ -11694,7 +11715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>760</v>
       </c>
@@ -11717,7 +11738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>761</v>
       </c>
@@ -11742,7 +11763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>764</v>
       </c>
@@ -11765,7 +11786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>766</v>
       </c>
@@ -11790,7 +11811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>769</v>
       </c>
@@ -11813,7 +11834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>770</v>
       </c>
@@ -11834,7 +11855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>771</v>
       </c>
@@ -11857,7 +11878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>773</v>
       </c>
@@ -11880,7 +11901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>775</v>
       </c>
@@ -11901,7 +11922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>777</v>
       </c>
@@ -11924,7 +11945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>778</v>
       </c>
@@ -11947,7 +11968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>779</v>
       </c>
@@ -11970,7 +11991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>780</v>
       </c>
@@ -11993,7 +12014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>782</v>
       </c>
@@ -12018,7 +12039,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>785</v>
       </c>
@@ -12041,7 +12062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>787</v>
       </c>
@@ -12066,7 +12087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>790</v>
       </c>
@@ -12089,7 +12110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>793</v>
       </c>
@@ -12112,7 +12133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>794</v>
       </c>
@@ -12137,7 +12158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>796</v>
       </c>
@@ -12162,7 +12183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>798</v>
       </c>
@@ -12185,7 +12206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>800</v>
       </c>
@@ -12210,7 +12231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>804</v>
       </c>
@@ -12233,7 +12254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>806</v>
       </c>
@@ -12258,7 +12279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>808</v>
       </c>
@@ -12285,7 +12306,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>813</v>
       </c>
@@ -12308,7 +12329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>814</v>
       </c>
@@ -12329,7 +12350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>815</v>
       </c>
@@ -12356,7 +12377,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>819</v>
       </c>
@@ -12379,7 +12400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>820</v>
       </c>
@@ -12402,7 +12423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>822</v>
       </c>
@@ -12423,7 +12444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>824</v>
       </c>
@@ -12446,7 +12467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>826</v>
       </c>
@@ -12469,7 +12490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>827</v>
       </c>
@@ -12492,7 +12513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>828</v>
       </c>
@@ -12519,7 +12540,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>832</v>
       </c>
@@ -12542,7 +12563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>835</v>
       </c>
@@ -12563,7 +12584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>836</v>
       </c>
@@ -12586,7 +12607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>838</v>
       </c>
@@ -12609,7 +12630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>839</v>
       </c>
@@ -12634,7 +12655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>842</v>
       </c>
@@ -12657,7 +12678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>844</v>
       </c>
@@ -12680,7 +12701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>845</v>
       </c>
@@ -12707,7 +12728,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>849</v>
       </c>
@@ -12730,7 +12751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>850</v>
       </c>
@@ -12753,7 +12774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>851</v>
       </c>
@@ -12778,7 +12799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>854</v>
       </c>
@@ -12801,7 +12822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>856</v>
       </c>
@@ -12824,7 +12845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>857</v>
       </c>
@@ -12847,7 +12868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>858</v>
       </c>
@@ -12870,7 +12891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>860</v>
       </c>
@@ -12893,7 +12914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>862</v>
       </c>
@@ -12914,7 +12935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>863</v>
       </c>
@@ -12941,7 +12962,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>867</v>
       </c>
@@ -12964,7 +12985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>869</v>
       </c>
@@ -12987,7 +13008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>870</v>
       </c>
@@ -13012,7 +13033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>872</v>
       </c>
@@ -13037,7 +13058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>873</v>
       </c>
@@ -13062,7 +13083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>875</v>
       </c>
@@ -13083,7 +13104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>876</v>
       </c>
@@ -13106,7 +13127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>878</v>
       </c>
@@ -13133,7 +13154,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>882</v>
       </c>
@@ -13158,7 +13179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>883</v>
       </c>
@@ -13179,7 +13200,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>886</v>
       </c>
@@ -13204,7 +13225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>888</v>
       </c>
@@ -13231,7 +13252,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>892</v>
       </c>
@@ -13258,7 +13279,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>895</v>
       </c>
@@ -13283,7 +13304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>897</v>
       </c>
@@ -13304,7 +13325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>898</v>
       </c>
@@ -13327,7 +13348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>900</v>
       </c>
@@ -13348,7 +13369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>901</v>
       </c>
@@ -13371,7 +13392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>903</v>
       </c>
@@ -13394,7 +13415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>905</v>
       </c>
@@ -13417,7 +13438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>908</v>
       </c>
@@ -13440,7 +13461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>910</v>
       </c>
@@ -13461,7 +13482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>911</v>
       </c>
@@ -13484,7 +13505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>912</v>
       </c>
@@ -13507,7 +13528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>914</v>
       </c>
@@ -13532,7 +13553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>916</v>
       </c>
@@ -13555,7 +13576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>918</v>
       </c>
@@ -13582,7 +13603,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>922</v>
       </c>
@@ -13605,7 +13626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>924</v>
       </c>
@@ -13628,7 +13649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>925</v>
       </c>
@@ -13649,7 +13670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>926</v>
       </c>
@@ -13674,7 +13695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>930</v>
       </c>
@@ -13697,7 +13718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>932</v>
       </c>
@@ -13720,7 +13741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>934</v>
       </c>
@@ -13743,7 +13764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>936</v>
       </c>
@@ -13764,7 +13785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>937</v>
       </c>
@@ -13787,7 +13808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>939</v>
       </c>
@@ -13808,7 +13829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>940</v>
       </c>
@@ -13829,7 +13850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>941</v>
       </c>
@@ -13856,7 +13877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>944</v>
       </c>
@@ -13877,7 +13898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>945</v>
       </c>
@@ -13900,7 +13921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>947</v>
       </c>
@@ -13923,7 +13944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>948</v>
       </c>
@@ -13946,7 +13967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>949</v>
       </c>
@@ -13969,7 +13990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>950</v>
       </c>
@@ -13992,7 +14013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>951</v>
       </c>
@@ -14017,7 +14038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>953</v>
       </c>
@@ -14038,7 +14059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>954</v>
       </c>
@@ -14067,7 +14088,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>960</v>
       </c>
@@ -14094,7 +14115,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>965</v>
       </c>
@@ -14117,7 +14138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>967</v>
       </c>
@@ -14140,7 +14161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>968</v>
       </c>
@@ -14165,7 +14186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>971</v>
       </c>
@@ -14190,7 +14211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>974</v>
       </c>
@@ -14213,7 +14234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>975</v>
       </c>
@@ -14238,7 +14259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>977</v>
       </c>
@@ -14259,7 +14280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>978</v>
       </c>
@@ -14284,7 +14305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>980</v>
       </c>
@@ -14311,7 +14332,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>985</v>
       </c>
@@ -14334,7 +14355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>987</v>
       </c>
@@ -14357,7 +14378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>989</v>
       </c>
@@ -14378,7 +14399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>991</v>
       </c>
@@ -14401,7 +14422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>992</v>
       </c>
@@ -14424,7 +14445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>994</v>
       </c>
@@ -14447,7 +14468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>996</v>
       </c>
@@ -14472,7 +14493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>997</v>
       </c>
@@ -14497,7 +14518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>1001</v>
       </c>
@@ -14520,7 +14541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>1002</v>
       </c>
@@ -14545,7 +14566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>1004</v>
       </c>
@@ -14566,7 +14587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>1005</v>
       </c>
@@ -14593,7 +14614,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>1008</v>
       </c>
@@ -14616,7 +14637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>1009</v>
       </c>
@@ -14639,7 +14660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>1010</v>
       </c>
@@ -14662,7 +14683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>1011</v>
       </c>
@@ -14685,7 +14706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>1013</v>
       </c>
@@ -14706,7 +14727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>1014</v>
       </c>
@@ -14729,7 +14750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>1016</v>
       </c>
@@ -14752,7 +14773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>1018</v>
       </c>
@@ -14773,7 +14794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>1019</v>
       </c>
@@ -14796,7 +14817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>1021</v>
       </c>
@@ -14817,7 +14838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>1023</v>
       </c>
@@ -14840,7 +14861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>1025</v>
       </c>
@@ -14863,7 +14884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>1026</v>
       </c>
@@ -14886,7 +14907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>1027</v>
       </c>
@@ -14909,7 +14930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>1028</v>
       </c>
@@ -14932,7 +14953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>1029</v>
       </c>
@@ -14955,7 +14976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>1030</v>
       </c>
@@ -14976,7 +14997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>1031</v>
       </c>
@@ -15003,7 +15024,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>1035</v>
       </c>
@@ -15030,7 +15051,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>1038</v>
       </c>
@@ -15057,7 +15078,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>1041</v>
       </c>
@@ -15080,7 +15101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>1043</v>
       </c>
@@ -15103,7 +15124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>1045</v>
       </c>
@@ -15128,7 +15149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>1048</v>
       </c>
@@ -15153,7 +15174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>1052</v>
       </c>
@@ -15178,7 +15199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>1054</v>
       </c>
@@ -15201,7 +15222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>1055</v>
       </c>
@@ -15222,7 +15243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>1056</v>
       </c>
@@ -15243,7 +15264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>1057</v>
       </c>
@@ -15266,7 +15287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>1058</v>
       </c>
@@ -15289,7 +15310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>1060</v>
       </c>
@@ -15314,7 +15335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>1061</v>
       </c>
@@ -15337,7 +15358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>1063</v>
       </c>
@@ -15360,7 +15381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>1064</v>
       </c>
@@ -15383,7 +15404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>1066</v>
       </c>
@@ -15408,7 +15429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>1069</v>
       </c>
@@ -15429,7 +15450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>1070</v>
       </c>
@@ -15452,7 +15473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>1071</v>
       </c>
@@ -15473,7 +15494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>1072</v>
       </c>
@@ -15498,7 +15519,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>1076</v>
       </c>
@@ -15521,7 +15542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>1078</v>
       </c>
@@ -15544,7 +15565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>1080</v>
       </c>
@@ -15567,7 +15588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>1082</v>
       </c>
@@ -15590,7 +15611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>1083</v>
       </c>
@@ -15613,7 +15634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>1085</v>
       </c>
@@ -15638,7 +15659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>1088</v>
       </c>
@@ -15661,7 +15682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>1089</v>
       </c>
@@ -15684,7 +15705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>1090</v>
       </c>
@@ -15709,7 +15730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>1094</v>
       </c>
@@ -15732,7 +15753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>1096</v>
       </c>
@@ -15755,7 +15776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>1097</v>
       </c>
@@ -15778,7 +15799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>1099</v>
       </c>
@@ -15799,7 +15820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>1100</v>
       </c>
@@ -15822,7 +15843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>1102</v>
       </c>
@@ -15845,7 +15866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>1105</v>
       </c>
@@ -15868,7 +15889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>1106</v>
       </c>
@@ -15891,7 +15912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>1107</v>
       </c>
@@ -15912,7 +15933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>1108</v>
       </c>
@@ -15935,7 +15956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>1110</v>
       </c>
@@ -15960,7 +15981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>1111</v>
       </c>
@@ -15981,7 +16002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>1112</v>
       </c>
@@ -16004,7 +16025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>1113</v>
       </c>
@@ -16027,7 +16048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>1114</v>
       </c>
@@ -16048,7 +16069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>1115</v>
       </c>
@@ -16071,7 +16092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>1116</v>
       </c>
@@ -16094,7 +16115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>1118</v>
       </c>
@@ -16115,7 +16136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>1119</v>
       </c>
@@ -16138,7 +16159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>1121</v>
       </c>
@@ -16161,7 +16182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>1122</v>
       </c>
@@ -16188,7 +16209,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>1127</v>
       </c>
@@ -16209,7 +16230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>1129</v>
       </c>
@@ -16230,7 +16251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>1130</v>
       </c>
@@ -16255,7 +16276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>1132</v>
       </c>
@@ -16280,7 +16301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>1133</v>
       </c>
@@ -16303,7 +16324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>1134</v>
       </c>
@@ -16328,7 +16349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>1136</v>
       </c>
@@ -16349,7 +16370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>1137</v>
       </c>
@@ -16374,7 +16395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>1140</v>
       </c>
@@ -16397,7 +16418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>1141</v>
       </c>
@@ -16424,7 +16445,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>1145</v>
       </c>
@@ -16449,7 +16470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>1147</v>
       </c>
@@ -16472,7 +16493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>1150</v>
       </c>
@@ -16497,7 +16518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>1151</v>
       </c>
@@ -16522,7 +16543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>1153</v>
       </c>
@@ -16545,7 +16566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>1155</v>
       </c>
@@ -16570,7 +16591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>1157</v>
       </c>
@@ -16593,7 +16614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>1158</v>
       </c>
@@ -16616,7 +16637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16643,7 +16664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>1162</v>
       </c>
@@ -16666,7 +16687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>1164</v>
       </c>
@@ -16689,7 +16710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>1166</v>
       </c>
@@ -16714,7 +16735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>1168</v>
       </c>
@@ -16739,7 +16760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>1172</v>
       </c>
@@ -16762,7 +16783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>1173</v>
       </c>
@@ -16783,7 +16804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>1174</v>
       </c>
@@ -16806,7 +16827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>1176</v>
       </c>
@@ -16833,7 +16854,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>1180</v>
       </c>
@@ -16854,7 +16875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>1181</v>
       </c>
@@ -16877,7 +16898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>1183</v>
       </c>
@@ -16900,7 +16921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>1184</v>
       </c>
@@ -16923,7 +16944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>1185</v>
       </c>
@@ -16950,7 +16971,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>1188</v>
       </c>
@@ -16973,7 +16994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>1189</v>
       </c>
@@ -16994,7 +17015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>1190</v>
       </c>
@@ -17015,7 +17036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>1191</v>
       </c>
@@ -17038,7 +17059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>1193</v>
       </c>
@@ -17061,7 +17082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>1194</v>
       </c>
@@ -17088,7 +17109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>1199</v>
       </c>
@@ -17109,7 +17130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>1200</v>
       </c>
@@ -17132,7 +17153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>1201</v>
       </c>
@@ -17157,7 +17178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>1204</v>
       </c>
@@ -17182,7 +17203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>1207</v>
       </c>
@@ -17203,7 +17224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>1208</v>
       </c>
@@ -17228,7 +17249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>1210</v>
       </c>
@@ -17249,7 +17270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>1211</v>
       </c>
@@ -17274,7 +17295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>1214</v>
       </c>
@@ -17295,7 +17316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>1216</v>
       </c>
@@ -17316,7 +17337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>1217</v>
       </c>
@@ -17339,7 +17360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>1220</v>
       </c>
@@ -17362,7 +17383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>1223</v>
       </c>
@@ -17385,7 +17406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="4" t="s">
         <v>1224</v>
       </c>
@@ -17408,7 +17429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="4" t="s">
         <v>1226</v>
       </c>
@@ -17433,7 +17454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>1227</v>
       </c>
@@ -17456,7 +17477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>1230</v>
       </c>
@@ -17481,7 +17502,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>1233</v>
       </c>
@@ -17504,7 +17525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>1235</v>
       </c>
@@ -17527,7 +17548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>1237</v>
       </c>
@@ -17548,7 +17569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>1238</v>
       </c>
@@ -17573,7 +17594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>1241</v>
       </c>
@@ -17598,7 +17619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>1244</v>
       </c>
@@ -17621,7 +17642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>1246</v>
       </c>
@@ -17642,7 +17663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>1248</v>
       </c>
@@ -17665,7 +17686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>1250</v>
       </c>
@@ -17690,7 +17711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>1251</v>
       </c>
@@ -17711,7 +17732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>1253</v>
       </c>
@@ -17734,7 +17755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>1255</v>
       </c>
@@ -17759,7 +17780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>1258</v>
       </c>
@@ -17784,7 +17805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>1259</v>
       </c>
@@ -17805,7 +17826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>1260</v>
       </c>
@@ -17828,7 +17849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>1262</v>
       </c>
@@ -17851,7 +17872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>1263</v>
       </c>
@@ -17872,7 +17893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>1265</v>
       </c>
@@ -17895,7 +17916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>1267</v>
       </c>
@@ -17918,7 +17939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>1268</v>
       </c>
@@ -17941,7 +17962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>1271</v>
       </c>
@@ -17970,7 +17991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>1273</v>
       </c>
@@ -17993,7 +18014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>1275</v>
       </c>
@@ -18014,7 +18035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>1276</v>
       </c>
@@ -18035,7 +18056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>1277</v>
       </c>
@@ -18056,7 +18077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>1278</v>
       </c>
@@ -18077,7 +18098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>1279</v>
       </c>
@@ -18098,7 +18119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>1280</v>
       </c>
@@ -18119,7 +18140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>1282</v>
       </c>
@@ -18142,7 +18163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>1283</v>
       </c>
@@ -18165,7 +18186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>1285</v>
       </c>
@@ -18188,7 +18209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>1287</v>
       </c>
@@ -18209,7 +18230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>1288</v>
       </c>
@@ -18232,7 +18253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>1289</v>
       </c>
@@ -18259,7 +18280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>1292</v>
       </c>
@@ -18284,7 +18305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>1295</v>
       </c>
@@ -18307,7 +18328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>1297</v>
       </c>
@@ -18332,7 +18353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>1300</v>
       </c>
@@ -18353,7 +18374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>1302</v>
       </c>
@@ -18378,7 +18399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>1305</v>
       </c>
@@ -18405,7 +18426,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>1309</v>
       </c>
@@ -18428,7 +18449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>1311</v>
       </c>
@@ -18451,7 +18472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>1312</v>
       </c>
@@ -18472,7 +18493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>1314</v>
       </c>
@@ -18493,7 +18514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>1316</v>
       </c>
@@ -18516,7 +18537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>1317</v>
       </c>
@@ -18539,7 +18560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>1318</v>
       </c>
@@ -18562,7 +18583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>1320</v>
       </c>
@@ -18589,7 +18610,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>1324</v>
       </c>
@@ -18610,7 +18631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>1325</v>
       </c>
@@ -18631,404 +18652,402 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="607" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/new data/NK elite new checklist.xlsx
+++ b/data/new data/NK elite new checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\new data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE26657-8B06-4903-A7C3-7CE44E323773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1222DCB-D6D6-4FD3-B992-5341EAE0431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="1700" windowWidth="18230" windowHeight="9100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="1327">
   <si>
     <t>Name</t>
   </si>
@@ -4003,6 +4003,9 @@
   </si>
   <si>
     <t>LeaderID</t>
+  </si>
+  <si>
+    <t>김완수a</t>
   </si>
 </sst>
 </file>
@@ -4112,7 +4115,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4327,8 +4330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7219,7 +7222,7 @@
     </row>
     <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>307</v>
+        <v>1326</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>307</v>
